--- a/Main/Index/data_base.xlsx
+++ b/Main/Index/data_base.xlsx
@@ -14,17 +14,12 @@
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="7">
   <si>
     <t>DIAMETRO</t>
   </si>
@@ -36,6 +31,9 @@
   </si>
   <si>
     <t>STOCK</t>
+  </si>
+  <si>
+    <t>SUPERDESCRIPTOR</t>
   </si>
   <si>
     <t>NEGRO</t>
@@ -88,22 +86,22 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,21 +392,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +420,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -430,13 +432,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -444,13 +446,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -458,13 +460,13 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -472,13 +474,13 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -486,13 +488,13 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -500,13 +502,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -514,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -528,13 +530,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -542,13 +544,13 @@
         <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -556,13 +558,13 @@
         <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -570,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -584,13 +586,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -598,13 +600,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -612,13 +614,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -626,7 +628,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -640,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
         <v>80</v>
@@ -654,7 +656,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>190</v>
@@ -668,7 +670,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>500</v>
@@ -682,7 +684,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>44</v>
@@ -696,7 +698,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -710,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
@@ -724,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
         <v>19</v>
@@ -738,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>120</v>
@@ -752,7 +754,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
         <v>160</v>
@@ -766,7 +768,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
         <v>180</v>
@@ -780,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1">
         <v>40</v>
@@ -794,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1">
         <v>25</v>
@@ -808,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1">
         <v>60</v>
@@ -822,7 +824,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1">
         <v>90</v>
@@ -836,7 +838,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1">
         <v>46</v>
@@ -850,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <v>20</v>
@@ -864,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
@@ -878,7 +880,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
         <v>19</v>
@@ -892,7 +894,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>120</v>
@@ -906,7 +908,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>160</v>
@@ -920,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1">
         <v>180</v>
@@ -934,7 +936,7 @@
         <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1">
         <v>40</v>
@@ -948,7 +950,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1">
         <v>25</v>
@@ -962,7 +964,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
         <v>60</v>
@@ -976,7 +978,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
@@ -990,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
         <v>25</v>
@@ -1004,7 +1006,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>120</v>
@@ -1018,7 +1020,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>160</v>
@@ -1032,7 +1034,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>180</v>
@@ -1046,7 +1048,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
         <v>40</v>
@@ -1060,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1">
         <v>25</v>
@@ -1074,7 +1076,7 @@
         <v>20</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
         <v>60</v>
@@ -1088,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1">
         <v>20</v>
@@ -1102,7 +1104,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1">
         <v>8</v>
@@ -1116,7 +1118,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1">
         <v>19</v>

--- a/Main/Index/data_base.xlsx
+++ b/Main/Index/data_base.xlsx
@@ -84,7 +84,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
     </dxf>
@@ -117,13 +120,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D51" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D51"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="DIAMETRO" dataDxfId="3"/>
-    <tableColumn id="2" name="LARGO" dataDxfId="2"/>
-    <tableColumn id="3" name="TERMINACION" dataDxfId="1"/>
-    <tableColumn id="4" name="STOCK" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E51" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E51"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="DIAMETRO" dataDxfId="4"/>
+    <tableColumn id="2" name="LARGO" dataDxfId="3"/>
+    <tableColumn id="3" name="TERMINACION" dataDxfId="2"/>
+    <tableColumn id="4" name="STOCK" dataDxfId="1"/>
+    <tableColumn id="6" name="SUPERDESCRIPTOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -394,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +408,7 @@
     <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -437,6 +441,9 @@
       <c r="D2" s="1">
         <v>120</v>
       </c>
+      <c r="E2" s="1">
+        <v>1101</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -451,6 +458,9 @@
       <c r="D3" s="1">
         <v>160</v>
       </c>
+      <c r="E3" s="1">
+        <v>1201</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -465,6 +475,9 @@
       <c r="D4" s="1">
         <v>180</v>
       </c>
+      <c r="E4" s="1">
+        <v>1301</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -479,6 +492,9 @@
       <c r="D5" s="1">
         <v>40</v>
       </c>
+      <c r="E5" s="1">
+        <v>1401</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -493,6 +509,9 @@
       <c r="D6" s="1">
         <v>25</v>
       </c>
+      <c r="E6" s="1">
+        <v>1501</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -507,6 +526,9 @@
       <c r="D7" s="1">
         <v>120</v>
       </c>
+      <c r="E7" s="1">
+        <v>1102</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -521,6 +543,9 @@
       <c r="D8" s="1">
         <v>160</v>
       </c>
+      <c r="E8" s="1">
+        <v>1202</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -535,6 +560,9 @@
       <c r="D9" s="1">
         <v>180</v>
       </c>
+      <c r="E9" s="1">
+        <v>1302</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -549,6 +577,9 @@
       <c r="D10" s="1">
         <v>40</v>
       </c>
+      <c r="E10" s="1">
+        <v>1402</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -563,6 +594,9 @@
       <c r="D11" s="1">
         <v>25</v>
       </c>
+      <c r="E11" s="1">
+        <v>1502</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -577,6 +611,9 @@
       <c r="D12" s="1">
         <v>60</v>
       </c>
+      <c r="E12" s="1">
+        <v>2101</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -591,6 +628,9 @@
       <c r="D13" s="1">
         <v>90</v>
       </c>
+      <c r="E13" s="1">
+        <v>2201</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -605,6 +645,9 @@
       <c r="D14" s="1">
         <v>46</v>
       </c>
+      <c r="E14" s="1">
+        <v>2301</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -619,6 +662,9 @@
       <c r="D15" s="1">
         <v>10</v>
       </c>
+      <c r="E15" s="1">
+        <v>2401</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -633,8 +679,11 @@
       <c r="D16" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -647,8 +696,11 @@
       <c r="D17" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -661,8 +713,11 @@
       <c r="D18" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -675,8 +730,11 @@
       <c r="D19" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -689,8 +747,11 @@
       <c r="D20" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -703,8 +764,11 @@
       <c r="D21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -717,8 +781,11 @@
       <c r="D22" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -731,8 +798,11 @@
       <c r="D23" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -745,8 +815,11 @@
       <c r="D24" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -759,8 +832,11 @@
       <c r="D25" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -773,8 +849,11 @@
       <c r="D26" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -787,8 +866,11 @@
       <c r="D27" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -801,8 +883,11 @@
       <c r="D28" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -815,8 +900,11 @@
       <c r="D29" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -829,8 +917,11 @@
       <c r="D30" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -843,8 +934,11 @@
       <c r="D31" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -857,8 +951,11 @@
       <c r="D32" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -871,8 +968,11 @@
       <c r="D33" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -885,8 +985,11 @@
       <c r="D34" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -899,8 +1002,11 @@
       <c r="D35" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -913,8 +1019,11 @@
       <c r="D36" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="1">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -927,8 +1036,11 @@
       <c r="D37" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="1">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -941,8 +1053,11 @@
       <c r="D38" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -955,8 +1070,11 @@
       <c r="D39" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -969,8 +1087,11 @@
       <c r="D40" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="1">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -983,8 +1104,11 @@
       <c r="D41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="1">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -997,8 +1121,11 @@
       <c r="D42" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -1011,8 +1138,11 @@
       <c r="D43" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="1">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -1025,8 +1155,11 @@
       <c r="D44" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="1">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -1039,8 +1172,11 @@
       <c r="D45" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="1">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>5</v>
       </c>
@@ -1053,8 +1189,11 @@
       <c r="D46" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -1067,8 +1206,11 @@
       <c r="D47" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>5</v>
       </c>
@@ -1081,8 +1223,11 @@
       <c r="D48" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="1">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>5</v>
       </c>
@@ -1095,8 +1240,11 @@
       <c r="D49" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="1">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>5</v>
       </c>
@@ -1109,8 +1257,11 @@
       <c r="D50" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="1">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -1122,6 +1273,9 @@
       </c>
       <c r="D51" s="1">
         <v>19</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5502</v>
       </c>
     </row>
   </sheetData>

--- a/Main/Index/data_base.xlsx
+++ b/Main/Index/data_base.xlsx
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Main/Index/data_base.xlsx
+++ b/Main/Index/data_base.xlsx
@@ -7,7 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Carrito" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="carrito" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="carrito1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="carrito2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -443,7 +445,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -495,7 +497,7 @@
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1101</v>
@@ -628,7 +630,7 @@
         </is>
       </c>
       <c r="D9" s="1" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1302</v>
@@ -933,7 +935,7 @@
         </is>
       </c>
       <c r="D25" s="1" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>3401</v>
@@ -952,7 +954,7 @@
         </is>
       </c>
       <c r="D26" s="1" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>3501</v>
@@ -990,7 +992,7 @@
         </is>
       </c>
       <c r="D28" s="1" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>3202</v>
@@ -1142,7 +1144,7 @@
         </is>
       </c>
       <c r="D36" s="1" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>4501</v>
@@ -1256,7 +1258,7 @@
         </is>
       </c>
       <c r="D42" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>5101</v>
@@ -1471,11 +1473,93 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3201</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>superdescriptor</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cantidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>superdescriptor</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cantidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Main/Index/data_base.xlsx
+++ b/Main/Index/data_base.xlsx
@@ -8,8 +8,6 @@
   <sheets>
     <sheet name="stock" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="carrito" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="carrito1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="carrito2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -444,8 +442,8 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -840,7 +838,7 @@
         </is>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>2402</v>
@@ -916,7 +914,7 @@
         </is>
       </c>
       <c r="D24" s="1" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>3301</v>
@@ -935,7 +933,7 @@
         </is>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>3401</v>
@@ -954,7 +952,7 @@
         </is>
       </c>
       <c r="D26" s="1" t="n">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>3501</v>
@@ -1258,7 +1256,7 @@
         </is>
       </c>
       <c r="D42" s="1" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>5101</v>
@@ -1473,93 +1471,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>superdescriptor</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>cantidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2302</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>superdescriptor</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>cantidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3401</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
